--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/cash_flow_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/cash_flow_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="232">
   <si>
     <t>date</t>
   </si>
@@ -139,6 +139,78 @@
     <t>index</t>
   </si>
   <si>
+    <t>AAPL-FY-1989</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1990</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1991</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1992</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1993</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1994</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1995</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1996</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1997</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1998</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1999</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2000</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2001</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2002</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2003</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2004</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2005</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2006</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2007</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2008</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2009</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2010</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2011</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2012</t>
+  </si>
+  <si>
     <t>AAPL-FY-2013</t>
   </si>
   <si>
@@ -178,6 +250,78 @@
     <t>0000320193</t>
   </si>
   <si>
+    <t>1989-09-30</t>
+  </si>
+  <si>
+    <t>1990-09-30</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
+  </si>
+  <si>
+    <t>1992-09-30</t>
+  </si>
+  <si>
+    <t>1993-09-30</t>
+  </si>
+  <si>
+    <t>1994-12-13</t>
+  </si>
+  <si>
+    <t>1995-12-19</t>
+  </si>
+  <si>
+    <t>1996-12-19</t>
+  </si>
+  <si>
+    <t>1997-12-05</t>
+  </si>
+  <si>
+    <t>1998-09-25</t>
+  </si>
+  <si>
+    <t>1999-12-22</t>
+  </si>
+  <si>
+    <t>2000-12-14</t>
+  </si>
+  <si>
+    <t>2001-12-21</t>
+  </si>
+  <si>
+    <t>2002-12-19</t>
+  </si>
+  <si>
+    <t>2003-12-19</t>
+  </si>
+  <si>
+    <t>2004-12-03</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-12-29</t>
+  </si>
+  <si>
+    <t>2007-11-15</t>
+  </si>
+  <si>
+    <t>2008-11-05</t>
+  </si>
+  <si>
+    <t>2009-10-27</t>
+  </si>
+  <si>
+    <t>2010-10-27</t>
+  </si>
+  <si>
+    <t>2011-10-26</t>
+  </si>
+  <si>
+    <t>2012-10-31</t>
+  </si>
+  <si>
     <t>2013-10-30</t>
   </si>
   <si>
@@ -208,6 +352,78 @@
     <t>2022-10-28</t>
   </si>
   <si>
+    <t>1989-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1990-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1991-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1992-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1993-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1994-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>1995-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1996-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1997-12-05 00:00:00</t>
+  </si>
+  <si>
+    <t>1998-09-24 20:00:00</t>
+  </si>
+  <si>
+    <t>1999-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2000-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2001-12-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2002-12-19 17:20:21</t>
+  </si>
+  <si>
+    <t>2003-12-19 17:25:45</t>
+  </si>
+  <si>
+    <t>2004-12-02 18:05:49</t>
+  </si>
+  <si>
+    <t>2005-11-30 21:22:48</t>
+  </si>
+  <si>
+    <t>2006-12-29 06:05:58</t>
+  </si>
+  <si>
+    <t>2007-11-15 16:49:37</t>
+  </si>
+  <si>
+    <t>2008-11-05 06:16:23</t>
+  </si>
+  <si>
+    <t>2009-10-27 16:18:29</t>
+  </si>
+  <si>
+    <t>2010-10-27 16:36:21</t>
+  </si>
+  <si>
+    <t>2011-10-26 16:35:25</t>
+  </si>
+  <si>
+    <t>2012-10-31 17:07:19</t>
+  </si>
+  <si>
     <t>2013-10-29 20:38:28</t>
   </si>
   <si>
@@ -238,6 +454,78 @@
     <t>2022-10-27 18:01:14</t>
   </si>
   <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -271,6 +559,60 @@
     <t>FY</t>
   </si>
   <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019394000016/0000320193-94-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019395000016/0000320193-95-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019396000023/0000320193-96-000023-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746997006960/0001047469-97-006960-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205799010244/0000912057-99-010244-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/0000912057-00-053623-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205701544436/a2066171z10-k405.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/0001047469-02-007674-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746903041604/a2124888z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746904035975/a2147337z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465905058421/a05-20674_110k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465906084288/a06-25759_210k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/0001047469-07-009340-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/0001193125-08-224958-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/0001193125-09-214859-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/0001193125-10-238044-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/0001193125-11-282113-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/0001193125-12-444068-index.html</t>
+  </si>
+  <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/0001193125-13-416534-index.html</t>
   </si>
   <si>
@@ -299,6 +641,45 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-94-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-95-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-96-000023.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0001047469-97-006960.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000912057-99-010244.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/a2032880z10-k.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/a2096490z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/a2181030z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/d220209d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/d411355d10k.htm</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/d590790d10k.htm</t>
@@ -703,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,124 +1220,118 @@
         <v>41</v>
       </c>
       <c r="B2" s="2">
-        <v>41545</v>
+        <v>32781</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J2">
-        <v>37037000000</v>
+        <v>454000000</v>
       </c>
       <c r="K2">
-        <v>6757000000</v>
+        <v>124800000</v>
       </c>
       <c r="L2">
-        <v>1141000000</v>
+        <v>111300000</v>
       </c>
       <c r="M2">
-        <v>2253000000</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6478000000</v>
+        <v>-109000000</v>
       </c>
       <c r="O2">
-        <v>-2172000000</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-973000000</v>
+        <v>-13900000</v>
       </c>
       <c r="Q2">
-        <v>2340000000</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1459000000</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-73800000</v>
       </c>
       <c r="T2">
-        <v>53666000000</v>
+        <v>507300000</v>
       </c>
       <c r="U2">
-        <v>-8165000000</v>
+        <v>-239000000</v>
       </c>
       <c r="V2">
-        <v>-496000000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-148489000000</v>
+        <v>-984700000</v>
       </c>
       <c r="X2">
-        <v>124447000000</v>
+        <v>787400000</v>
       </c>
       <c r="Y2">
-        <v>-1071000000</v>
+        <v>33200000</v>
       </c>
       <c r="Z2">
-        <v>-33774000000</v>
+        <v>-403100000</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>530000000</v>
+        <v>96000000</v>
       </c>
       <c r="AC2">
-        <v>-22860000000</v>
+        <v>-12900000</v>
       </c>
       <c r="AD2">
-        <v>-10564000000</v>
+        <v>-50300000</v>
       </c>
       <c r="AE2">
-        <v>16515000000</v>
+        <v>-71100000</v>
       </c>
       <c r="AF2">
-        <v>-16379000000</v>
+        <v>-38300000</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>3513000000</v>
+        <v>-38300000</v>
       </c>
       <c r="AI2">
-        <v>14259000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10746000000</v>
+        <v>372400000</v>
       </c>
       <c r="AK2">
-        <v>53666000000</v>
+        <v>507300000</v>
       </c>
       <c r="AL2">
-        <v>-9076000000</v>
+        <v>-239000000</v>
       </c>
       <c r="AM2">
-        <v>44590000000</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>95</v>
+        <v>268300000</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -964,124 +1339,118 @@
         <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>41909</v>
+        <v>33146</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J3">
-        <v>39510000000</v>
+        <v>474900000</v>
       </c>
       <c r="K3">
-        <v>7946000000</v>
+        <v>202700000</v>
       </c>
       <c r="L3">
-        <v>2347000000</v>
+        <v>138900000</v>
       </c>
       <c r="M3">
-        <v>2863000000</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7047000000</v>
+        <v>145300000</v>
       </c>
       <c r="O3">
-        <v>-4232000000</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-76000000</v>
+        <v>119900000</v>
       </c>
       <c r="Q3">
-        <v>5938000000</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1460000000</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="T3">
-        <v>59713000000</v>
+        <v>963900000</v>
       </c>
       <c r="U3">
-        <v>-9571000000</v>
+        <v>-224300000</v>
       </c>
       <c r="V3">
-        <v>-3765000000</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-217128000000</v>
+        <v>-1424400000</v>
       </c>
       <c r="X3">
-        <v>208111000000</v>
+        <v>1172700000</v>
       </c>
       <c r="Y3">
-        <v>-226000000</v>
+        <v>-97500000</v>
       </c>
       <c r="Z3">
-        <v>-22579000000</v>
+        <v>-573500000</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>730000000</v>
+        <v>103500000</v>
       </c>
       <c r="AC3">
-        <v>-45000000000</v>
+        <v>-569600000</v>
       </c>
       <c r="AD3">
-        <v>-11126000000</v>
+        <v>-53800000</v>
       </c>
       <c r="AE3">
-        <v>17847000000</v>
+        <v>65900000</v>
       </c>
       <c r="AF3">
-        <v>-37549000000</v>
+        <v>-454000000</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-415000000</v>
+        <v>-454000000</v>
       </c>
       <c r="AI3">
-        <v>13844000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14259000000</v>
+        <v>438300000</v>
       </c>
       <c r="AK3">
-        <v>59713000000</v>
+        <v>963900000</v>
       </c>
       <c r="AL3">
-        <v>-9813000000</v>
+        <v>-224300000</v>
       </c>
       <c r="AM3">
-        <v>49900000000</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>96</v>
+        <v>739600000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1089,124 +1458,118 @@
         <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>42273</v>
+        <v>33511</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J4">
-        <v>53394000000</v>
+        <v>309800000</v>
       </c>
       <c r="K4">
-        <v>11257000000</v>
+        <v>204400000</v>
       </c>
       <c r="L4">
-        <v>1382000000</v>
+        <v>8000000</v>
       </c>
       <c r="M4">
-        <v>3586000000</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11647000000</v>
+        <v>-400700000</v>
       </c>
       <c r="O4">
-        <v>611000000</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>-238000000</v>
+        <v>-316200000</v>
       </c>
       <c r="Q4">
-        <v>5400000000</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1042000000</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>7200000</v>
       </c>
       <c r="T4">
-        <v>81266000000</v>
+        <v>128700000</v>
       </c>
       <c r="U4">
-        <v>-11247000000</v>
+        <v>-218300000</v>
       </c>
       <c r="V4">
-        <v>-343000000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-166402000000</v>
+        <v>-610700000</v>
       </c>
       <c r="X4">
-        <v>121985000000</v>
+        <v>944500000</v>
       </c>
       <c r="Y4">
-        <v>-267000000</v>
+        <v>-57200000</v>
       </c>
       <c r="Z4">
-        <v>-56274000000</v>
+        <v>58300000</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>543000000</v>
+        <v>257700000</v>
       </c>
       <c r="AC4">
-        <v>-35253000000</v>
+        <v>-184700000</v>
       </c>
       <c r="AD4">
-        <v>-11561000000</v>
+        <v>-56500000</v>
       </c>
       <c r="AE4">
-        <v>28555000000</v>
+        <v>26000000</v>
       </c>
       <c r="AF4">
-        <v>-17716000000</v>
+        <v>42500000</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>7276000000</v>
+        <v>42500000</v>
       </c>
       <c r="AI4">
-        <v>21120000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>13844000000</v>
+        <v>374700000</v>
       </c>
       <c r="AK4">
-        <v>81266000000</v>
+        <v>128700000</v>
       </c>
       <c r="AL4">
-        <v>-11488000000</v>
+        <v>-218300000</v>
       </c>
       <c r="AM4">
-        <v>69778000000</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>97</v>
+        <v>-89600000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1214,124 +1577,118 @@
         <v>44</v>
       </c>
       <c r="B5" s="2">
-        <v>42637</v>
+        <v>33877</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J5">
-        <v>45687000000</v>
+        <v>530400000</v>
       </c>
       <c r="K5">
-        <v>10505000000</v>
+        <v>217200000</v>
       </c>
       <c r="L5">
-        <v>4938000000</v>
+        <v>100900000</v>
       </c>
       <c r="M5">
-        <v>4210000000</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>484000000</v>
+        <v>20700000</v>
       </c>
       <c r="O5">
-        <v>1095000000</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>217000000</v>
+        <v>91600000</v>
       </c>
       <c r="Q5">
-        <v>1791000000</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-1554000000</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>14500000</v>
       </c>
       <c r="T5">
-        <v>65824000000</v>
+        <v>883700000</v>
       </c>
       <c r="U5">
-        <v>-12734000000</v>
+        <v>-194900000</v>
       </c>
       <c r="V5">
-        <v>-297000000</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-143816000000</v>
+        <v>-2121300000</v>
       </c>
       <c r="X5">
-        <v>111794000000</v>
+        <v>1473000000</v>
       </c>
       <c r="Y5">
-        <v>-924000000</v>
+        <v>-69400000</v>
       </c>
       <c r="Z5">
-        <v>-45977000000</v>
+        <v>-912600000</v>
       </c>
       <c r="AA5">
-        <v>-2500000000</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>495000000</v>
+        <v>157200000</v>
       </c>
       <c r="AC5">
-        <v>-29722000000</v>
+        <v>-212600000</v>
       </c>
       <c r="AD5">
-        <v>-12150000000</v>
+        <v>-57200000</v>
       </c>
       <c r="AE5">
-        <v>23394000000</v>
+        <v>35900000</v>
       </c>
       <c r="AF5">
-        <v>-20483000000</v>
+        <v>-76700000</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>-636000000</v>
+        <v>-76700000</v>
       </c>
       <c r="AI5">
-        <v>20484000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>21120000000</v>
+        <v>604100000</v>
       </c>
       <c r="AK5">
-        <v>65824000000</v>
+        <v>883700000</v>
       </c>
       <c r="AL5">
-        <v>-13548000000</v>
+        <v>-194900000</v>
       </c>
       <c r="AM5">
-        <v>52276000000</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>98</v>
+        <v>688800000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1339,124 +1696,118 @@
         <v>45</v>
       </c>
       <c r="B6" s="2">
-        <v>43008</v>
+        <v>34242</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J6">
-        <v>48351000000</v>
+        <v>86600000</v>
       </c>
       <c r="K6">
-        <v>10157000000</v>
+        <v>166100000</v>
       </c>
       <c r="L6">
-        <v>5966000000</v>
+        <v>19000000</v>
       </c>
       <c r="M6">
-        <v>4840000000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-5550000000</v>
+        <v>-946700000</v>
       </c>
       <c r="O6">
-        <v>-2093000000</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>-2723000000</v>
+        <v>-926500000</v>
       </c>
       <c r="Q6">
-        <v>9618000000</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-626000000</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-166000000</v>
+        <v>13200000</v>
       </c>
       <c r="T6">
-        <v>63598000000</v>
+        <v>-661800000</v>
       </c>
       <c r="U6">
-        <v>-12451000000</v>
+        <v>-213100000</v>
       </c>
       <c r="V6">
-        <v>-329000000</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-159881000000</v>
+        <v>-1432000000</v>
       </c>
       <c r="X6">
-        <v>126339000000</v>
+        <v>2153100000</v>
       </c>
       <c r="Y6">
-        <v>-124000000</v>
+        <v>-15200000</v>
       </c>
       <c r="Z6">
-        <v>-46446000000</v>
+        <v>492800000</v>
       </c>
       <c r="AA6">
-        <v>-3500000000</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>555000000</v>
+        <v>85300000</v>
       </c>
       <c r="AC6">
-        <v>-32900000000</v>
+        <v>-273500000</v>
       </c>
       <c r="AD6">
-        <v>-12769000000</v>
+        <v>-55600000</v>
       </c>
       <c r="AE6">
-        <v>31267000000</v>
+        <v>590700000</v>
       </c>
       <c r="AF6">
-        <v>-17347000000</v>
+        <v>346900000</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>-195000000</v>
+        <v>346900000</v>
       </c>
       <c r="AI6">
-        <v>20289000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>20484000000</v>
+        <v>498600000</v>
       </c>
       <c r="AK6">
-        <v>63598000000</v>
+        <v>-661800000</v>
       </c>
       <c r="AL6">
-        <v>-12795000000</v>
+        <v>-213100000</v>
       </c>
       <c r="AM6">
-        <v>50803000000</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>99</v>
+        <v>-874900000</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1464,124 +1815,124 @@
         <v>46</v>
       </c>
       <c r="B7" s="2">
-        <v>43372</v>
+        <v>34607</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J7">
-        <v>59531000000</v>
+        <v>310178000</v>
       </c>
       <c r="K7">
-        <v>10903000000</v>
+        <v>167958000</v>
       </c>
       <c r="L7">
-        <v>-32590000000</v>
+        <v>40800000</v>
       </c>
       <c r="M7">
-        <v>5340000000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>34694000000</v>
+        <v>247729000</v>
       </c>
       <c r="O7">
-        <v>-5322000000</v>
+        <v>-199401000</v>
       </c>
       <c r="P7">
-        <v>828000000</v>
+        <v>418204000</v>
       </c>
       <c r="Q7">
-        <v>9175000000</v>
+        <v>139095000</v>
       </c>
       <c r="R7">
-        <v>-44000000</v>
+        <v>15873000</v>
       </c>
       <c r="S7">
-        <v>-444000000</v>
+        <v>-29670000</v>
       </c>
       <c r="T7">
-        <v>77434000000</v>
+        <v>736995000</v>
       </c>
       <c r="U7">
-        <v>-13313000000</v>
+        <v>-159587000</v>
       </c>
       <c r="V7">
-        <v>-721000000</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-73227000000</v>
+        <v>-312073000</v>
       </c>
       <c r="X7">
-        <v>104072000000</v>
+        <v>473595000</v>
       </c>
       <c r="Y7">
-        <v>-745000000</v>
+        <v>-3737000</v>
       </c>
       <c r="Z7">
-        <v>16066000000</v>
+        <v>-1802000</v>
       </c>
       <c r="AA7">
-        <v>-6500000000</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>669000000</v>
+        <v>82081000</v>
       </c>
       <c r="AC7">
-        <v>-72738000000</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>-13712000000</v>
+        <v>-56572000</v>
       </c>
       <c r="AE7">
-        <v>4405000000</v>
+        <v>-233627000</v>
       </c>
       <c r="AF7">
-        <v>-87876000000</v>
+        <v>-208118000</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>5624000000</v>
+        <v>527075000</v>
       </c>
       <c r="AI7">
-        <v>25913000000</v>
+        <v>1203488000</v>
       </c>
       <c r="AJ7">
-        <v>20289000000</v>
+        <v>676413000</v>
       </c>
       <c r="AK7">
-        <v>77434000000</v>
+        <v>736995000</v>
       </c>
       <c r="AL7">
-        <v>-13313000000</v>
+        <v>-159587000</v>
       </c>
       <c r="AM7">
-        <v>64121000000</v>
+        <v>577408000</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1589,124 +1940,124 @@
         <v>47</v>
       </c>
       <c r="B8" s="2">
-        <v>43736</v>
+        <v>34971</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J8">
-        <v>55256000000</v>
+        <v>424000000</v>
       </c>
       <c r="K8">
-        <v>12547000000</v>
+        <v>127000000</v>
       </c>
       <c r="L8">
-        <v>-340000000</v>
+        <v>73000000</v>
       </c>
       <c r="M8">
-        <v>6068000000</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-3488000000</v>
+        <v>-797000000</v>
       </c>
       <c r="O8">
-        <v>245000000</v>
+        <v>-350000000</v>
       </c>
       <c r="P8">
-        <v>-289000000</v>
+        <v>-687000000</v>
       </c>
       <c r="Q8">
-        <v>-1923000000</v>
+        <v>283000000</v>
       </c>
       <c r="R8">
-        <v>-625000000</v>
+        <v>73000000</v>
       </c>
       <c r="S8">
-        <v>-652000000</v>
+        <v>-67000000</v>
       </c>
       <c r="T8">
-        <v>69391000000</v>
+        <v>-240000000</v>
       </c>
       <c r="U8">
-        <v>-10495000000</v>
+        <v>-159000000</v>
       </c>
       <c r="V8">
-        <v>-624000000</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-40631000000</v>
+        <v>-1672000000</v>
       </c>
       <c r="X8">
-        <v>98724000000</v>
+        <v>1531000000</v>
       </c>
       <c r="Y8">
-        <v>-1078000000</v>
+        <v>-102000000</v>
       </c>
       <c r="Z8">
-        <v>45896000000</v>
+        <v>-402000000</v>
       </c>
       <c r="AA8">
-        <v>-8805000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AB8">
-        <v>781000000</v>
+        <v>86000000</v>
       </c>
       <c r="AC8">
-        <v>-66897000000</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>-14119000000</v>
+        <v>-58000000</v>
       </c>
       <c r="AE8">
-        <v>-1936000000</v>
+        <v>169000000</v>
       </c>
       <c r="AF8">
-        <v>-90976000000</v>
+        <v>195000000</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>24311000000</v>
+        <v>-447000000</v>
       </c>
       <c r="AI8">
-        <v>50224000000</v>
+        <v>756000000</v>
       </c>
       <c r="AJ8">
-        <v>25913000000</v>
+        <v>1203000000</v>
       </c>
       <c r="AK8">
-        <v>69391000000</v>
+        <v>-240000000</v>
       </c>
       <c r="AL8">
-        <v>-10495000000</v>
+        <v>-159000000</v>
       </c>
       <c r="AM8">
-        <v>58896000000</v>
+        <v>-399000000</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1714,124 +2065,124 @@
         <v>48</v>
       </c>
       <c r="B9" s="2">
-        <v>44100</v>
+        <v>35335</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J9">
-        <v>57411000000</v>
+        <v>-816000000</v>
       </c>
       <c r="K9">
-        <v>11056000000</v>
+        <v>156000000</v>
       </c>
       <c r="L9">
-        <v>-215000000</v>
+        <v>-439000000</v>
       </c>
       <c r="M9">
-        <v>6829000000</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>5690000000</v>
+        <v>1109000000</v>
       </c>
       <c r="O9">
-        <v>6917000000</v>
+        <v>435000000</v>
       </c>
       <c r="P9">
-        <v>-127000000</v>
+        <v>1113000000</v>
       </c>
       <c r="Q9">
-        <v>-4062000000</v>
+        <v>-374000000</v>
       </c>
       <c r="R9">
-        <v>2081000000</v>
+        <v>-439000000</v>
       </c>
       <c r="S9">
-        <v>-97000000</v>
+        <v>509000000</v>
       </c>
       <c r="T9">
-        <v>80674000000</v>
+        <v>519000000</v>
       </c>
       <c r="U9">
-        <v>-7309000000</v>
+        <v>-67000000</v>
       </c>
       <c r="V9">
-        <v>-1524000000</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-115148000000</v>
+        <v>-437000000</v>
       </c>
       <c r="X9">
-        <v>120483000000</v>
+        <v>440000000</v>
       </c>
       <c r="Y9">
-        <v>-791000000</v>
+        <v>-55000000</v>
       </c>
       <c r="Z9">
-        <v>-4289000000</v>
+        <v>-119000000</v>
       </c>
       <c r="AA9">
-        <v>-12629000000</v>
+        <v>-275000000</v>
       </c>
       <c r="AB9">
-        <v>880000000</v>
+        <v>39000000</v>
       </c>
       <c r="AC9">
-        <v>-72358000000</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>-14081000000</v>
+        <v>-14000000</v>
       </c>
       <c r="AE9">
-        <v>11368000000</v>
+        <v>646000000</v>
       </c>
       <c r="AF9">
-        <v>-86820000000</v>
+        <v>396000000</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>-10435000000</v>
+        <v>796000000</v>
       </c>
       <c r="AI9">
-        <v>39789000000</v>
+        <v>1552000000</v>
       </c>
       <c r="AJ9">
-        <v>50224000000</v>
+        <v>756000000</v>
       </c>
       <c r="AK9">
-        <v>80674000000</v>
+        <v>519000000</v>
       </c>
       <c r="AL9">
-        <v>-7309000000</v>
+        <v>-67000000</v>
       </c>
       <c r="AM9">
-        <v>73365000000</v>
+        <v>452000000</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1839,124 +2190,124 @@
         <v>49</v>
       </c>
       <c r="B10" s="2">
-        <v>44464</v>
+        <v>35699</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J10">
-        <v>94680000000</v>
+        <v>-1045000000</v>
       </c>
       <c r="K10">
-        <v>11284000000</v>
+        <v>118000000</v>
       </c>
       <c r="L10">
-        <v>-4774000000</v>
+        <v>-7000000</v>
       </c>
       <c r="M10">
-        <v>7906000000</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-4911000000</v>
+        <v>670000000</v>
       </c>
       <c r="O10">
-        <v>-10125000000</v>
+        <v>469000000</v>
       </c>
       <c r="P10">
-        <v>-2642000000</v>
+        <v>225000000</v>
       </c>
       <c r="Q10">
-        <v>12326000000</v>
+        <v>-107000000</v>
       </c>
       <c r="R10">
-        <v>1676000000</v>
+        <v>-7000000</v>
       </c>
       <c r="S10">
-        <v>-147000000</v>
+        <v>452000000</v>
       </c>
       <c r="T10">
-        <v>104038000000</v>
+        <v>188000000</v>
       </c>
       <c r="U10">
-        <v>-11085000000</v>
+        <v>-53000000</v>
       </c>
       <c r="V10">
-        <v>-33000000</v>
+        <v>-384000000</v>
       </c>
       <c r="W10">
-        <v>-109689000000</v>
+        <v>-999000000</v>
       </c>
       <c r="X10">
-        <v>106870000000</v>
+        <v>963000000</v>
       </c>
       <c r="Y10">
-        <v>-608000000</v>
+        <v>-60000000</v>
       </c>
       <c r="Z10">
-        <v>-14545000000</v>
+        <v>-533000000</v>
       </c>
       <c r="AA10">
-        <v>-8750000000</v>
+        <v>-161000000</v>
       </c>
       <c r="AB10">
-        <v>1105000000</v>
+        <v>34000000</v>
       </c>
       <c r="AC10">
-        <v>-85971000000</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>-14467000000</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>14730000000</v>
+        <v>150000000</v>
       </c>
       <c r="AF10">
-        <v>-93353000000</v>
+        <v>23000000</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>-3860000000</v>
+        <v>-322000000</v>
       </c>
       <c r="AI10">
-        <v>35929000000</v>
+        <v>1230000000</v>
       </c>
       <c r="AJ10">
-        <v>39789000000</v>
+        <v>1552000000</v>
       </c>
       <c r="AK10">
-        <v>104038000000</v>
+        <v>188000000</v>
       </c>
       <c r="AL10">
-        <v>-11085000000</v>
+        <v>-53000000</v>
       </c>
       <c r="AM10">
-        <v>92953000000</v>
+        <v>135000000</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1964,148 +2315,3178 @@
         <v>50</v>
       </c>
       <c r="B11" s="2">
+        <v>36063</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11">
+        <v>309000000</v>
+      </c>
+      <c r="K11">
+        <v>111000000</v>
+      </c>
+      <c r="L11">
+        <v>1000000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>387000000</v>
+      </c>
+      <c r="O11">
+        <v>72000000</v>
+      </c>
+      <c r="P11">
+        <v>359000000</v>
+      </c>
+      <c r="Q11">
+        <v>34000000</v>
+      </c>
+      <c r="R11">
+        <v>83000000</v>
+      </c>
+      <c r="S11">
+        <v>-33000000</v>
+      </c>
+      <c r="T11">
+        <v>775000000</v>
+      </c>
+      <c r="U11">
+        <v>-46000000</v>
+      </c>
+      <c r="V11">
+        <v>24000000</v>
+      </c>
+      <c r="W11">
+        <v>-2313000000</v>
+      </c>
+      <c r="X11">
+        <v>1723000000</v>
+      </c>
+      <c r="Y11">
+        <v>69000000</v>
+      </c>
+      <c r="Z11">
+        <v>-543000000</v>
+      </c>
+      <c r="AA11">
+        <v>-25000000</v>
+      </c>
+      <c r="AB11">
+        <v>41000000</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>3000000</v>
+      </c>
+      <c r="AF11">
+        <v>19000000</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>251000000</v>
+      </c>
+      <c r="AI11">
+        <v>1481000000</v>
+      </c>
+      <c r="AJ11">
+        <v>1230000000</v>
+      </c>
+      <c r="AK11">
+        <v>775000000</v>
+      </c>
+      <c r="AL11">
+        <v>-56000000</v>
+      </c>
+      <c r="AM11">
+        <v>719000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36428</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12">
+        <v>601000000</v>
+      </c>
+      <c r="K12">
+        <v>85000000</v>
+      </c>
+      <c r="L12">
+        <v>-35000000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>377000000</v>
+      </c>
+      <c r="O12">
+        <v>274000000</v>
+      </c>
+      <c r="P12">
+        <v>58000000</v>
+      </c>
+      <c r="Q12">
+        <v>93000000</v>
+      </c>
+      <c r="R12">
+        <v>-3000000</v>
+      </c>
+      <c r="S12">
+        <v>-230000000</v>
+      </c>
+      <c r="T12">
+        <v>798000000</v>
+      </c>
+      <c r="U12">
+        <v>-47000000</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>-4348000000</v>
+      </c>
+      <c r="X12">
+        <v>3400000000</v>
+      </c>
+      <c r="Y12">
+        <v>31000000</v>
+      </c>
+      <c r="Z12">
+        <v>-964000000</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>86000000</v>
+      </c>
+      <c r="AC12">
+        <v>-75000000</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>11000000</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>-155000000</v>
+      </c>
+      <c r="AI12">
+        <v>1326000000</v>
+      </c>
+      <c r="AJ12">
+        <v>1481000000</v>
+      </c>
+      <c r="AK12">
+        <v>798000000</v>
+      </c>
+      <c r="AL12">
+        <v>-47000000</v>
+      </c>
+      <c r="AM12">
+        <v>751000000</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13">
+        <v>786000000</v>
+      </c>
+      <c r="K13">
+        <v>84000000</v>
+      </c>
+      <c r="L13">
+        <v>163000000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>157000000</v>
+      </c>
+      <c r="O13">
+        <v>-272000000</v>
+      </c>
+      <c r="P13">
+        <v>-13000000</v>
+      </c>
+      <c r="Q13">
+        <v>345000000</v>
+      </c>
+      <c r="R13">
+        <v>-15000000</v>
+      </c>
+      <c r="S13">
+        <v>-364000000</v>
+      </c>
+      <c r="T13">
+        <v>826000000</v>
+      </c>
+      <c r="U13">
+        <v>-107000000</v>
+      </c>
+      <c r="V13">
+        <v>372000000</v>
+      </c>
+      <c r="W13">
+        <v>-4499000000</v>
+      </c>
+      <c r="X13">
+        <v>3331000000</v>
+      </c>
+      <c r="Y13">
+        <v>-27000000</v>
+      </c>
+      <c r="Z13">
+        <v>-930000000</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>85000000</v>
+      </c>
+      <c r="AC13">
+        <v>-116000000</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>-31000000</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>-135000000</v>
+      </c>
+      <c r="AI13">
+        <v>1191000000</v>
+      </c>
+      <c r="AJ13">
+        <v>1326000000</v>
+      </c>
+      <c r="AK13">
+        <v>826000000</v>
+      </c>
+      <c r="AL13">
+        <v>-107000000</v>
+      </c>
+      <c r="AM13">
+        <v>719000000</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14">
+        <v>-25000000</v>
+      </c>
+      <c r="K14">
+        <v>102000000</v>
+      </c>
+      <c r="L14">
+        <v>-36000000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>211000000</v>
+      </c>
+      <c r="O14">
+        <v>487000000</v>
+      </c>
+      <c r="P14">
+        <v>22000000</v>
+      </c>
+      <c r="Q14">
+        <v>-356000000</v>
+      </c>
+      <c r="R14">
+        <v>12000000</v>
+      </c>
+      <c r="S14">
+        <v>-67000000</v>
+      </c>
+      <c r="T14">
+        <v>185000000</v>
+      </c>
+      <c r="U14">
+        <v>-232000000</v>
+      </c>
+      <c r="V14">
+        <v>340000000</v>
+      </c>
+      <c r="W14">
+        <v>-4269000000</v>
+      </c>
+      <c r="X14">
+        <v>5089000000</v>
+      </c>
+      <c r="Y14">
+        <v>-36000000</v>
+      </c>
+      <c r="Z14">
+        <v>892000000</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>42000000</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>42000000</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1119000000</v>
+      </c>
+      <c r="AI14">
+        <v>2310000000</v>
+      </c>
+      <c r="AJ14">
+        <v>1191000000</v>
+      </c>
+      <c r="AK14">
+        <v>185000000</v>
+      </c>
+      <c r="AL14">
+        <v>-232000000</v>
+      </c>
+      <c r="AM14">
+        <v>-47000000</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37527</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15">
+        <v>65000000</v>
+      </c>
+      <c r="K15">
+        <v>118000000</v>
+      </c>
+      <c r="L15">
+        <v>-34000000</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-103000000</v>
+      </c>
+      <c r="O15">
+        <v>-99000000</v>
+      </c>
+      <c r="P15">
+        <v>-34000000</v>
+      </c>
+      <c r="Q15">
+        <v>110000000</v>
+      </c>
+      <c r="R15">
+        <v>-11000000</v>
+      </c>
+      <c r="S15">
+        <v>43000000</v>
+      </c>
+      <c r="T15">
+        <v>89000000</v>
+      </c>
+      <c r="U15">
+        <v>-174000000</v>
+      </c>
+      <c r="V15">
+        <v>-27000000</v>
+      </c>
+      <c r="W15">
+        <v>-4144000000</v>
+      </c>
+      <c r="X15">
+        <v>4100000000</v>
+      </c>
+      <c r="Y15">
+        <v>-7000000</v>
+      </c>
+      <c r="Z15">
+        <v>-252000000</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>105000000</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>105000000</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>-58000000</v>
+      </c>
+      <c r="AI15">
+        <v>2252000000</v>
+      </c>
+      <c r="AJ15">
+        <v>2310000000</v>
+      </c>
+      <c r="AK15">
+        <v>89000000</v>
+      </c>
+      <c r="AL15">
+        <v>-174000000</v>
+      </c>
+      <c r="AM15">
+        <v>-85000000</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37891</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16">
+        <v>69000000</v>
+      </c>
+      <c r="K16">
+        <v>113000000</v>
+      </c>
+      <c r="L16">
+        <v>-11000000</v>
+      </c>
+      <c r="M16">
+        <v>16000000</v>
+      </c>
+      <c r="N16">
+        <v>126000000</v>
+      </c>
+      <c r="O16">
+        <v>-201000000</v>
+      </c>
+      <c r="P16">
+        <v>-11000000</v>
+      </c>
+      <c r="Q16">
+        <v>243000000</v>
+      </c>
+      <c r="R16">
+        <v>-30000000</v>
+      </c>
+      <c r="S16">
+        <v>-24000000</v>
+      </c>
+      <c r="T16">
+        <v>289000000</v>
+      </c>
+      <c r="U16">
+        <v>-164000000</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>-2648000000</v>
+      </c>
+      <c r="X16">
+        <v>3607000000</v>
+      </c>
+      <c r="Y16">
+        <v>33000000</v>
+      </c>
+      <c r="Z16">
+        <v>828000000</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>53000000</v>
+      </c>
+      <c r="AC16">
+        <v>-26000000</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>27000000</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1144000000</v>
+      </c>
+      <c r="AI16">
+        <v>3396000000</v>
+      </c>
+      <c r="AJ16">
+        <v>2252000000</v>
+      </c>
+      <c r="AK16">
+        <v>289000000</v>
+      </c>
+      <c r="AL16">
+        <v>-164000000</v>
+      </c>
+      <c r="AM16">
+        <v>125000000</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17">
+        <v>276000000</v>
+      </c>
+      <c r="K17">
+        <v>150000000</v>
+      </c>
+      <c r="L17">
+        <v>20000000</v>
+      </c>
+      <c r="M17">
+        <v>33000000</v>
+      </c>
+      <c r="N17">
+        <v>448000000</v>
+      </c>
+      <c r="O17">
+        <v>-8000000</v>
+      </c>
+      <c r="P17">
+        <v>-45000000</v>
+      </c>
+      <c r="Q17">
+        <v>297000000</v>
+      </c>
+      <c r="R17">
+        <v>-39000000</v>
+      </c>
+      <c r="S17">
+        <v>7000000</v>
+      </c>
+      <c r="T17">
+        <v>934000000</v>
+      </c>
+      <c r="U17">
+        <v>-176000000</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>-3270000000</v>
+      </c>
+      <c r="X17">
+        <v>1947000000</v>
+      </c>
+      <c r="Y17">
+        <v>11000000</v>
+      </c>
+      <c r="Z17">
+        <v>-1488000000</v>
+      </c>
+      <c r="AA17">
+        <v>-300000000</v>
+      </c>
+      <c r="AB17">
+        <v>427000000</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>127000000</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>-427000000</v>
+      </c>
+      <c r="AI17">
+        <v>2969000000</v>
+      </c>
+      <c r="AJ17">
+        <v>3396000000</v>
+      </c>
+      <c r="AK17">
+        <v>934000000</v>
+      </c>
+      <c r="AL17">
+        <v>-176000000</v>
+      </c>
+      <c r="AM17">
+        <v>758000000</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38619</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18">
+        <v>1335000000</v>
+      </c>
+      <c r="K18">
+        <v>179000000</v>
+      </c>
+      <c r="L18">
+        <v>505000000</v>
+      </c>
+      <c r="M18">
+        <v>42000000</v>
+      </c>
+      <c r="N18">
+        <v>465000000</v>
+      </c>
+      <c r="O18">
+        <v>-121000000</v>
+      </c>
+      <c r="P18">
+        <v>-64000000</v>
+      </c>
+      <c r="Q18">
+        <v>328000000</v>
+      </c>
+      <c r="R18">
+        <v>-61000000</v>
+      </c>
+      <c r="S18">
+        <v>9000000</v>
+      </c>
+      <c r="T18">
+        <v>2535000000</v>
+      </c>
+      <c r="U18">
+        <v>-260000000</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>-11470000000</v>
+      </c>
+      <c r="X18">
+        <v>9195000000</v>
+      </c>
+      <c r="Y18">
+        <v>-21000000</v>
+      </c>
+      <c r="Z18">
+        <v>-2556000000</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>543000000</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>543000000</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>522000000</v>
+      </c>
+      <c r="AI18">
+        <v>3491000000</v>
+      </c>
+      <c r="AJ18">
+        <v>2969000000</v>
+      </c>
+      <c r="AK18">
+        <v>2535000000</v>
+      </c>
+      <c r="AL18">
+        <v>-260000000</v>
+      </c>
+      <c r="AM18">
+        <v>2275000000</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38990</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19">
+        <v>1989000000</v>
+      </c>
+      <c r="K19">
+        <v>225000000</v>
+      </c>
+      <c r="L19">
+        <v>53000000</v>
+      </c>
+      <c r="M19">
+        <v>163000000</v>
+      </c>
+      <c r="N19">
+        <v>-221000000</v>
+      </c>
+      <c r="O19">
+        <v>-357000000</v>
+      </c>
+      <c r="P19">
+        <v>-105000000</v>
+      </c>
+      <c r="Q19">
+        <v>1611000000</v>
+      </c>
+      <c r="R19">
+        <v>-1040000000</v>
+      </c>
+      <c r="S19">
+        <v>11000000</v>
+      </c>
+      <c r="T19">
+        <v>2220000000</v>
+      </c>
+      <c r="U19">
+        <v>-657000000</v>
+      </c>
+      <c r="V19">
+        <v>40000000</v>
+      </c>
+      <c r="W19">
+        <v>-7280000000</v>
+      </c>
+      <c r="X19">
+        <v>8312000000</v>
+      </c>
+      <c r="Y19">
+        <v>-58000000</v>
+      </c>
+      <c r="Z19">
+        <v>357000000</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>318000000</v>
+      </c>
+      <c r="AC19">
+        <v>-355000000</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>361000000</v>
+      </c>
+      <c r="AF19">
+        <v>324000000</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>2901000000</v>
+      </c>
+      <c r="AI19">
+        <v>6392000000</v>
+      </c>
+      <c r="AJ19">
+        <v>3491000000</v>
+      </c>
+      <c r="AK19">
+        <v>2220000000</v>
+      </c>
+      <c r="AL19">
+        <v>-657000000</v>
+      </c>
+      <c r="AM19">
+        <v>1563000000</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20">
+        <v>3496000000</v>
+      </c>
+      <c r="K20">
+        <v>317000000</v>
+      </c>
+      <c r="L20">
+        <v>78000000</v>
+      </c>
+      <c r="M20">
+        <v>242000000</v>
+      </c>
+      <c r="N20">
+        <v>1325000000</v>
+      </c>
+      <c r="O20">
+        <v>-385000000</v>
+      </c>
+      <c r="P20">
+        <v>-76000000</v>
+      </c>
+      <c r="Q20">
+        <v>1494000000</v>
+      </c>
+      <c r="R20">
+        <v>81000000</v>
+      </c>
+      <c r="S20">
+        <v>12000000</v>
+      </c>
+      <c r="T20">
+        <v>5470000000</v>
+      </c>
+      <c r="U20">
+        <v>-735000000</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>-11736000000</v>
+      </c>
+      <c r="X20">
+        <v>9424000000</v>
+      </c>
+      <c r="Y20">
+        <v>-202000000</v>
+      </c>
+      <c r="Z20">
+        <v>-3249000000</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>365000000</v>
+      </c>
+      <c r="AC20">
+        <v>-3000000</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>377000000</v>
+      </c>
+      <c r="AF20">
+        <v>739000000</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>2960000000</v>
+      </c>
+      <c r="AI20">
+        <v>9352000000</v>
+      </c>
+      <c r="AJ20">
+        <v>6392000000</v>
+      </c>
+      <c r="AK20">
+        <v>5470000000</v>
+      </c>
+      <c r="AL20">
+        <v>-986000000</v>
+      </c>
+      <c r="AM20">
+        <v>4484000000</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39718</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21">
+        <v>4834000000</v>
+      </c>
+      <c r="K21">
+        <v>473000000</v>
+      </c>
+      <c r="L21">
+        <v>-368000000</v>
+      </c>
+      <c r="M21">
+        <v>516000000</v>
+      </c>
+      <c r="N21">
+        <v>4119000000</v>
+      </c>
+      <c r="O21">
+        <v>-785000000</v>
+      </c>
+      <c r="P21">
+        <v>-163000000</v>
+      </c>
+      <c r="Q21">
+        <v>596000000</v>
+      </c>
+      <c r="R21">
+        <v>5150000000</v>
+      </c>
+      <c r="S21">
+        <v>22000000</v>
+      </c>
+      <c r="T21">
+        <v>9596000000</v>
+      </c>
+      <c r="U21">
+        <v>-1091000000</v>
+      </c>
+      <c r="V21">
+        <v>-220000000</v>
+      </c>
+      <c r="W21">
+        <v>-23003000000</v>
+      </c>
+      <c r="X21">
+        <v>16243000000</v>
+      </c>
+      <c r="Y21">
+        <v>-118000000</v>
+      </c>
+      <c r="Z21">
+        <v>-8189000000</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>483000000</v>
+      </c>
+      <c r="AC21">
+        <v>-124000000</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>757000000</v>
+      </c>
+      <c r="AF21">
+        <v>1116000000</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>2523000000</v>
+      </c>
+      <c r="AI21">
+        <v>11875000000</v>
+      </c>
+      <c r="AJ21">
+        <v>9352000000</v>
+      </c>
+      <c r="AK21">
+        <v>9596000000</v>
+      </c>
+      <c r="AL21">
+        <v>-1199000000</v>
+      </c>
+      <c r="AM21">
+        <v>8397000000</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40082</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22">
+        <v>5704000000</v>
+      </c>
+      <c r="K22">
+        <v>703000000</v>
+      </c>
+      <c r="L22">
+        <v>-519000000</v>
+      </c>
+      <c r="M22">
+        <v>710000000</v>
+      </c>
+      <c r="N22">
+        <v>3535000000</v>
+      </c>
+      <c r="O22">
+        <v>-939000000</v>
+      </c>
+      <c r="P22">
+        <v>54000000</v>
+      </c>
+      <c r="Q22">
+        <v>92000000</v>
+      </c>
+      <c r="R22">
+        <v>5562000000</v>
+      </c>
+      <c r="S22">
+        <v>26000000</v>
+      </c>
+      <c r="T22">
+        <v>10159000000</v>
+      </c>
+      <c r="U22">
+        <v>-1144000000</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>-46825000000</v>
+      </c>
+      <c r="X22">
+        <v>30678000000</v>
+      </c>
+      <c r="Y22">
+        <v>-143000000</v>
+      </c>
+      <c r="Z22">
+        <v>-17434000000</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>475000000</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>188000000</v>
+      </c>
+      <c r="AF22">
+        <v>663000000</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>-6612000000</v>
+      </c>
+      <c r="AI22">
+        <v>5263000000</v>
+      </c>
+      <c r="AJ22">
+        <v>11875000000</v>
+      </c>
+      <c r="AK22">
+        <v>10159000000</v>
+      </c>
+      <c r="AL22">
+        <v>-1213000000</v>
+      </c>
+      <c r="AM22">
+        <v>8946000000</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23">
+        <v>14013000000</v>
+      </c>
+      <c r="K23">
+        <v>1027000000</v>
+      </c>
+      <c r="L23">
+        <v>1440000000</v>
+      </c>
+      <c r="M23">
+        <v>879000000</v>
+      </c>
+      <c r="N23">
+        <v>1212000000</v>
+      </c>
+      <c r="O23">
+        <v>-2142000000</v>
+      </c>
+      <c r="P23">
+        <v>-596000000</v>
+      </c>
+      <c r="Q23">
+        <v>6307000000</v>
+      </c>
+      <c r="R23">
+        <v>1097000000</v>
+      </c>
+      <c r="S23">
+        <v>24000000</v>
+      </c>
+      <c r="T23">
+        <v>18595000000</v>
+      </c>
+      <c r="U23">
+        <v>-2005000000</v>
+      </c>
+      <c r="V23">
+        <v>-638000000</v>
+      </c>
+      <c r="W23">
+        <v>-57811000000</v>
+      </c>
+      <c r="X23">
+        <v>46718000000</v>
+      </c>
+      <c r="Y23">
+        <v>-118000000</v>
+      </c>
+      <c r="Z23">
+        <v>-13854000000</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>912000000</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>345000000</v>
+      </c>
+      <c r="AF23">
+        <v>1257000000</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>5998000000</v>
+      </c>
+      <c r="AI23">
+        <v>11261000000</v>
+      </c>
+      <c r="AJ23">
+        <v>5263000000</v>
+      </c>
+      <c r="AK23">
+        <v>18595000000</v>
+      </c>
+      <c r="AL23">
+        <v>-2121000000</v>
+      </c>
+      <c r="AM23">
+        <v>16474000000</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40810</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24">
+        <v>25922000000</v>
+      </c>
+      <c r="K24">
+        <v>1814000000</v>
+      </c>
+      <c r="L24">
+        <v>2868000000</v>
+      </c>
+      <c r="M24">
+        <v>1168000000</v>
+      </c>
+      <c r="N24">
+        <v>5757000000</v>
+      </c>
+      <c r="O24">
+        <v>143000000</v>
+      </c>
+      <c r="P24">
+        <v>275000000</v>
+      </c>
+      <c r="Q24">
+        <v>2515000000</v>
+      </c>
+      <c r="R24">
+        <v>1654000000</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>37529000000</v>
+      </c>
+      <c r="U24">
+        <v>-4260000000</v>
+      </c>
+      <c r="V24">
+        <v>-244000000</v>
+      </c>
+      <c r="W24">
+        <v>-102317000000</v>
+      </c>
+      <c r="X24">
+        <v>69853000000</v>
+      </c>
+      <c r="Y24">
+        <v>-3451000000</v>
+      </c>
+      <c r="Z24">
+        <v>-40419000000</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>831000000</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>613000000</v>
+      </c>
+      <c r="AF24">
+        <v>1444000000</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>-1446000000</v>
+      </c>
+      <c r="AI24">
+        <v>9815000000</v>
+      </c>
+      <c r="AJ24">
+        <v>11261000000</v>
+      </c>
+      <c r="AK24">
+        <v>37529000000</v>
+      </c>
+      <c r="AL24">
+        <v>-7452000000</v>
+      </c>
+      <c r="AM24">
+        <v>30077000000</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25">
+        <v>41733000000</v>
+      </c>
+      <c r="K25">
+        <v>3277000000</v>
+      </c>
+      <c r="L25">
+        <v>4405000000</v>
+      </c>
+      <c r="M25">
+        <v>1740000000</v>
+      </c>
+      <c r="N25">
+        <v>-299000000</v>
+      </c>
+      <c r="O25">
+        <v>-5551000000</v>
+      </c>
+      <c r="P25">
+        <v>-15000000</v>
+      </c>
+      <c r="Q25">
+        <v>4467000000</v>
+      </c>
+      <c r="R25">
+        <v>2824000000</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>50856000000</v>
+      </c>
+      <c r="U25">
+        <v>-8295000000</v>
+      </c>
+      <c r="V25">
+        <v>-350000000</v>
+      </c>
+      <c r="W25">
+        <v>-151232000000</v>
+      </c>
+      <c r="X25">
+        <v>112805000000</v>
+      </c>
+      <c r="Y25">
+        <v>-1155000000</v>
+      </c>
+      <c r="Z25">
+        <v>-48227000000</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>665000000</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>-2488000000</v>
+      </c>
+      <c r="AE25">
+        <v>125000000</v>
+      </c>
+      <c r="AF25">
+        <v>-1698000000</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>931000000</v>
+      </c>
+      <c r="AI25">
+        <v>10746000000</v>
+      </c>
+      <c r="AJ25">
+        <v>9815000000</v>
+      </c>
+      <c r="AK25">
+        <v>50856000000</v>
+      </c>
+      <c r="AL25">
+        <v>-9402000000</v>
+      </c>
+      <c r="AM25">
+        <v>41454000000</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26">
+        <v>37037000000</v>
+      </c>
+      <c r="K26">
+        <v>6757000000</v>
+      </c>
+      <c r="L26">
+        <v>1141000000</v>
+      </c>
+      <c r="M26">
+        <v>2253000000</v>
+      </c>
+      <c r="N26">
+        <v>6478000000</v>
+      </c>
+      <c r="O26">
+        <v>-2172000000</v>
+      </c>
+      <c r="P26">
+        <v>-973000000</v>
+      </c>
+      <c r="Q26">
+        <v>2340000000</v>
+      </c>
+      <c r="R26">
+        <v>1459000000</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>53666000000</v>
+      </c>
+      <c r="U26">
+        <v>-8165000000</v>
+      </c>
+      <c r="V26">
+        <v>-496000000</v>
+      </c>
+      <c r="W26">
+        <v>-148489000000</v>
+      </c>
+      <c r="X26">
+        <v>124447000000</v>
+      </c>
+      <c r="Y26">
+        <v>-1071000000</v>
+      </c>
+      <c r="Z26">
+        <v>-33774000000</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>530000000</v>
+      </c>
+      <c r="AC26">
+        <v>-22860000000</v>
+      </c>
+      <c r="AD26">
+        <v>-10564000000</v>
+      </c>
+      <c r="AE26">
+        <v>16515000000</v>
+      </c>
+      <c r="AF26">
+        <v>-16379000000</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>3513000000</v>
+      </c>
+      <c r="AI26">
+        <v>14259000000</v>
+      </c>
+      <c r="AJ26">
+        <v>10746000000</v>
+      </c>
+      <c r="AK26">
+        <v>53666000000</v>
+      </c>
+      <c r="AL26">
+        <v>-9076000000</v>
+      </c>
+      <c r="AM26">
+        <v>44590000000</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27">
+        <v>39510000000</v>
+      </c>
+      <c r="K27">
+        <v>7946000000</v>
+      </c>
+      <c r="L27">
+        <v>2347000000</v>
+      </c>
+      <c r="M27">
+        <v>2863000000</v>
+      </c>
+      <c r="N27">
+        <v>7047000000</v>
+      </c>
+      <c r="O27">
+        <v>-4232000000</v>
+      </c>
+      <c r="P27">
+        <v>-76000000</v>
+      </c>
+      <c r="Q27">
+        <v>5938000000</v>
+      </c>
+      <c r="R27">
+        <v>1460000000</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>59713000000</v>
+      </c>
+      <c r="U27">
+        <v>-9571000000</v>
+      </c>
+      <c r="V27">
+        <v>-3765000000</v>
+      </c>
+      <c r="W27">
+        <v>-217128000000</v>
+      </c>
+      <c r="X27">
+        <v>208111000000</v>
+      </c>
+      <c r="Y27">
+        <v>-226000000</v>
+      </c>
+      <c r="Z27">
+        <v>-22579000000</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>730000000</v>
+      </c>
+      <c r="AC27">
+        <v>-45000000000</v>
+      </c>
+      <c r="AD27">
+        <v>-11126000000</v>
+      </c>
+      <c r="AE27">
+        <v>17847000000</v>
+      </c>
+      <c r="AF27">
+        <v>-37549000000</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>-415000000</v>
+      </c>
+      <c r="AI27">
+        <v>13844000000</v>
+      </c>
+      <c r="AJ27">
+        <v>14259000000</v>
+      </c>
+      <c r="AK27">
+        <v>59713000000</v>
+      </c>
+      <c r="AL27">
+        <v>-9813000000</v>
+      </c>
+      <c r="AM27">
+        <v>49900000000</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28">
+        <v>53394000000</v>
+      </c>
+      <c r="K28">
+        <v>11257000000</v>
+      </c>
+      <c r="L28">
+        <v>1382000000</v>
+      </c>
+      <c r="M28">
+        <v>3586000000</v>
+      </c>
+      <c r="N28">
+        <v>11647000000</v>
+      </c>
+      <c r="O28">
+        <v>611000000</v>
+      </c>
+      <c r="P28">
+        <v>-238000000</v>
+      </c>
+      <c r="Q28">
+        <v>5400000000</v>
+      </c>
+      <c r="R28">
+        <v>1042000000</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>81266000000</v>
+      </c>
+      <c r="U28">
+        <v>-11247000000</v>
+      </c>
+      <c r="V28">
+        <v>-343000000</v>
+      </c>
+      <c r="W28">
+        <v>-166402000000</v>
+      </c>
+      <c r="X28">
+        <v>121985000000</v>
+      </c>
+      <c r="Y28">
+        <v>-267000000</v>
+      </c>
+      <c r="Z28">
+        <v>-56274000000</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>543000000</v>
+      </c>
+      <c r="AC28">
+        <v>-35253000000</v>
+      </c>
+      <c r="AD28">
+        <v>-11561000000</v>
+      </c>
+      <c r="AE28">
+        <v>28555000000</v>
+      </c>
+      <c r="AF28">
+        <v>-17716000000</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>7276000000</v>
+      </c>
+      <c r="AI28">
+        <v>21120000000</v>
+      </c>
+      <c r="AJ28">
+        <v>13844000000</v>
+      </c>
+      <c r="AK28">
+        <v>81266000000</v>
+      </c>
+      <c r="AL28">
+        <v>-11488000000</v>
+      </c>
+      <c r="AM28">
+        <v>69778000000</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42637</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29">
+        <v>45687000000</v>
+      </c>
+      <c r="K29">
+        <v>10505000000</v>
+      </c>
+      <c r="L29">
+        <v>4938000000</v>
+      </c>
+      <c r="M29">
+        <v>4210000000</v>
+      </c>
+      <c r="N29">
+        <v>484000000</v>
+      </c>
+      <c r="O29">
+        <v>1095000000</v>
+      </c>
+      <c r="P29">
+        <v>217000000</v>
+      </c>
+      <c r="Q29">
+        <v>1791000000</v>
+      </c>
+      <c r="R29">
+        <v>-1554000000</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>65824000000</v>
+      </c>
+      <c r="U29">
+        <v>-12734000000</v>
+      </c>
+      <c r="V29">
+        <v>-297000000</v>
+      </c>
+      <c r="W29">
+        <v>-143816000000</v>
+      </c>
+      <c r="X29">
+        <v>111794000000</v>
+      </c>
+      <c r="Y29">
+        <v>-924000000</v>
+      </c>
+      <c r="Z29">
+        <v>-45977000000</v>
+      </c>
+      <c r="AA29">
+        <v>-2500000000</v>
+      </c>
+      <c r="AB29">
+        <v>495000000</v>
+      </c>
+      <c r="AC29">
+        <v>-29722000000</v>
+      </c>
+      <c r="AD29">
+        <v>-12150000000</v>
+      </c>
+      <c r="AE29">
+        <v>23394000000</v>
+      </c>
+      <c r="AF29">
+        <v>-20483000000</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>-636000000</v>
+      </c>
+      <c r="AI29">
+        <v>20484000000</v>
+      </c>
+      <c r="AJ29">
+        <v>21120000000</v>
+      </c>
+      <c r="AK29">
+        <v>65824000000</v>
+      </c>
+      <c r="AL29">
+        <v>-13548000000</v>
+      </c>
+      <c r="AM29">
+        <v>52276000000</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <v>48351000000</v>
+      </c>
+      <c r="K30">
+        <v>10157000000</v>
+      </c>
+      <c r="L30">
+        <v>5966000000</v>
+      </c>
+      <c r="M30">
+        <v>4840000000</v>
+      </c>
+      <c r="N30">
+        <v>-5550000000</v>
+      </c>
+      <c r="O30">
+        <v>-2093000000</v>
+      </c>
+      <c r="P30">
+        <v>-2723000000</v>
+      </c>
+      <c r="Q30">
+        <v>9618000000</v>
+      </c>
+      <c r="R30">
+        <v>-626000000</v>
+      </c>
+      <c r="S30">
+        <v>-166000000</v>
+      </c>
+      <c r="T30">
+        <v>63598000000</v>
+      </c>
+      <c r="U30">
+        <v>-12451000000</v>
+      </c>
+      <c r="V30">
+        <v>-329000000</v>
+      </c>
+      <c r="W30">
+        <v>-159881000000</v>
+      </c>
+      <c r="X30">
+        <v>126339000000</v>
+      </c>
+      <c r="Y30">
+        <v>-124000000</v>
+      </c>
+      <c r="Z30">
+        <v>-46446000000</v>
+      </c>
+      <c r="AA30">
+        <v>-3500000000</v>
+      </c>
+      <c r="AB30">
+        <v>555000000</v>
+      </c>
+      <c r="AC30">
+        <v>-32900000000</v>
+      </c>
+      <c r="AD30">
+        <v>-12769000000</v>
+      </c>
+      <c r="AE30">
+        <v>31267000000</v>
+      </c>
+      <c r="AF30">
+        <v>-17347000000</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>-195000000</v>
+      </c>
+      <c r="AI30">
+        <v>20289000000</v>
+      </c>
+      <c r="AJ30">
+        <v>20484000000</v>
+      </c>
+      <c r="AK30">
+        <v>63598000000</v>
+      </c>
+      <c r="AL30">
+        <v>-12795000000</v>
+      </c>
+      <c r="AM30">
+        <v>50803000000</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43372</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31">
+        <v>59531000000</v>
+      </c>
+      <c r="K31">
+        <v>10903000000</v>
+      </c>
+      <c r="L31">
+        <v>-32590000000</v>
+      </c>
+      <c r="M31">
+        <v>5340000000</v>
+      </c>
+      <c r="N31">
+        <v>34694000000</v>
+      </c>
+      <c r="O31">
+        <v>-5322000000</v>
+      </c>
+      <c r="P31">
+        <v>828000000</v>
+      </c>
+      <c r="Q31">
+        <v>9175000000</v>
+      </c>
+      <c r="R31">
+        <v>-44000000</v>
+      </c>
+      <c r="S31">
+        <v>-444000000</v>
+      </c>
+      <c r="T31">
+        <v>77434000000</v>
+      </c>
+      <c r="U31">
+        <v>-13313000000</v>
+      </c>
+      <c r="V31">
+        <v>-721000000</v>
+      </c>
+      <c r="W31">
+        <v>-73227000000</v>
+      </c>
+      <c r="X31">
+        <v>104072000000</v>
+      </c>
+      <c r="Y31">
+        <v>-745000000</v>
+      </c>
+      <c r="Z31">
+        <v>16066000000</v>
+      </c>
+      <c r="AA31">
+        <v>-6500000000</v>
+      </c>
+      <c r="AB31">
+        <v>669000000</v>
+      </c>
+      <c r="AC31">
+        <v>-72738000000</v>
+      </c>
+      <c r="AD31">
+        <v>-13712000000</v>
+      </c>
+      <c r="AE31">
+        <v>4405000000</v>
+      </c>
+      <c r="AF31">
+        <v>-87876000000</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>5624000000</v>
+      </c>
+      <c r="AI31">
+        <v>25913000000</v>
+      </c>
+      <c r="AJ31">
+        <v>20289000000</v>
+      </c>
+      <c r="AK31">
+        <v>77434000000</v>
+      </c>
+      <c r="AL31">
+        <v>-13313000000</v>
+      </c>
+      <c r="AM31">
+        <v>64121000000</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43736</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32">
+        <v>55256000000</v>
+      </c>
+      <c r="K32">
+        <v>12547000000</v>
+      </c>
+      <c r="L32">
+        <v>-340000000</v>
+      </c>
+      <c r="M32">
+        <v>6068000000</v>
+      </c>
+      <c r="N32">
+        <v>-3488000000</v>
+      </c>
+      <c r="O32">
+        <v>245000000</v>
+      </c>
+      <c r="P32">
+        <v>-289000000</v>
+      </c>
+      <c r="Q32">
+        <v>-1923000000</v>
+      </c>
+      <c r="R32">
+        <v>-625000000</v>
+      </c>
+      <c r="S32">
+        <v>-652000000</v>
+      </c>
+      <c r="T32">
+        <v>69391000000</v>
+      </c>
+      <c r="U32">
+        <v>-10495000000</v>
+      </c>
+      <c r="V32">
+        <v>-624000000</v>
+      </c>
+      <c r="W32">
+        <v>-40631000000</v>
+      </c>
+      <c r="X32">
+        <v>98724000000</v>
+      </c>
+      <c r="Y32">
+        <v>-1078000000</v>
+      </c>
+      <c r="Z32">
+        <v>45896000000</v>
+      </c>
+      <c r="AA32">
+        <v>-8805000000</v>
+      </c>
+      <c r="AB32">
+        <v>781000000</v>
+      </c>
+      <c r="AC32">
+        <v>-66897000000</v>
+      </c>
+      <c r="AD32">
+        <v>-14119000000</v>
+      </c>
+      <c r="AE32">
+        <v>-1936000000</v>
+      </c>
+      <c r="AF32">
+        <v>-90976000000</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>24311000000</v>
+      </c>
+      <c r="AI32">
+        <v>50224000000</v>
+      </c>
+      <c r="AJ32">
+        <v>25913000000</v>
+      </c>
+      <c r="AK32">
+        <v>69391000000</v>
+      </c>
+      <c r="AL32">
+        <v>-10495000000</v>
+      </c>
+      <c r="AM32">
+        <v>58896000000</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33">
+        <v>57411000000</v>
+      </c>
+      <c r="K33">
+        <v>11056000000</v>
+      </c>
+      <c r="L33">
+        <v>-215000000</v>
+      </c>
+      <c r="M33">
+        <v>6829000000</v>
+      </c>
+      <c r="N33">
+        <v>5690000000</v>
+      </c>
+      <c r="O33">
+        <v>6917000000</v>
+      </c>
+      <c r="P33">
+        <v>-127000000</v>
+      </c>
+      <c r="Q33">
+        <v>-4062000000</v>
+      </c>
+      <c r="R33">
+        <v>2081000000</v>
+      </c>
+      <c r="S33">
+        <v>-97000000</v>
+      </c>
+      <c r="T33">
+        <v>80674000000</v>
+      </c>
+      <c r="U33">
+        <v>-7309000000</v>
+      </c>
+      <c r="V33">
+        <v>-1524000000</v>
+      </c>
+      <c r="W33">
+        <v>-115148000000</v>
+      </c>
+      <c r="X33">
+        <v>120483000000</v>
+      </c>
+      <c r="Y33">
+        <v>-791000000</v>
+      </c>
+      <c r="Z33">
+        <v>-4289000000</v>
+      </c>
+      <c r="AA33">
+        <v>-12629000000</v>
+      </c>
+      <c r="AB33">
+        <v>880000000</v>
+      </c>
+      <c r="AC33">
+        <v>-72358000000</v>
+      </c>
+      <c r="AD33">
+        <v>-14081000000</v>
+      </c>
+      <c r="AE33">
+        <v>11368000000</v>
+      </c>
+      <c r="AF33">
+        <v>-86820000000</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>-10435000000</v>
+      </c>
+      <c r="AI33">
+        <v>39789000000</v>
+      </c>
+      <c r="AJ33">
+        <v>50224000000</v>
+      </c>
+      <c r="AK33">
+        <v>80674000000</v>
+      </c>
+      <c r="AL33">
+        <v>-7309000000</v>
+      </c>
+      <c r="AM33">
+        <v>73365000000</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44464</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34">
+        <v>94680000000</v>
+      </c>
+      <c r="K34">
+        <v>11284000000</v>
+      </c>
+      <c r="L34">
+        <v>-4774000000</v>
+      </c>
+      <c r="M34">
+        <v>7906000000</v>
+      </c>
+      <c r="N34">
+        <v>-4911000000</v>
+      </c>
+      <c r="O34">
+        <v>-10125000000</v>
+      </c>
+      <c r="P34">
+        <v>-2642000000</v>
+      </c>
+      <c r="Q34">
+        <v>12326000000</v>
+      </c>
+      <c r="R34">
+        <v>1676000000</v>
+      </c>
+      <c r="S34">
+        <v>-147000000</v>
+      </c>
+      <c r="T34">
+        <v>104038000000</v>
+      </c>
+      <c r="U34">
+        <v>-11085000000</v>
+      </c>
+      <c r="V34">
+        <v>-33000000</v>
+      </c>
+      <c r="W34">
+        <v>-109689000000</v>
+      </c>
+      <c r="X34">
+        <v>106870000000</v>
+      </c>
+      <c r="Y34">
+        <v>-608000000</v>
+      </c>
+      <c r="Z34">
+        <v>-14545000000</v>
+      </c>
+      <c r="AA34">
+        <v>-8750000000</v>
+      </c>
+      <c r="AB34">
+        <v>1105000000</v>
+      </c>
+      <c r="AC34">
+        <v>-85971000000</v>
+      </c>
+      <c r="AD34">
+        <v>-14467000000</v>
+      </c>
+      <c r="AE34">
+        <v>14730000000</v>
+      </c>
+      <c r="AF34">
+        <v>-93353000000</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>-3860000000</v>
+      </c>
+      <c r="AI34">
+        <v>35929000000</v>
+      </c>
+      <c r="AJ34">
+        <v>39789000000</v>
+      </c>
+      <c r="AK34">
+        <v>104038000000</v>
+      </c>
+      <c r="AL34">
+        <v>-11085000000</v>
+      </c>
+      <c r="AM34">
+        <v>92953000000</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2">
         <v>44828</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35">
         <v>99803000000</v>
       </c>
-      <c r="K11">
+      <c r="K35">
         <v>11104000000</v>
       </c>
-      <c r="L11">
+      <c r="L35">
         <v>895000000</v>
       </c>
-      <c r="M11">
+      <c r="M35">
         <v>9038000000</v>
       </c>
-      <c r="N11">
+      <c r="N35">
         <v>1200000000</v>
       </c>
-      <c r="O11">
+      <c r="O35">
         <v>-1823000000</v>
       </c>
-      <c r="P11">
+      <c r="P35">
         <v>1484000000</v>
       </c>
-      <c r="Q11">
+      <c r="Q35">
         <v>9448000000</v>
       </c>
-      <c r="R11">
+      <c r="R35">
         <v>478000000</v>
       </c>
-      <c r="S11">
+      <c r="S35">
         <v>111000000</v>
       </c>
-      <c r="T11">
+      <c r="T35">
         <v>122151000000</v>
       </c>
-      <c r="U11">
+      <c r="U35">
         <v>-10708000000</v>
       </c>
-      <c r="V11">
+      <c r="V35">
         <v>-306000000</v>
       </c>
-      <c r="W11">
+      <c r="W35">
         <v>-76923000000</v>
       </c>
-      <c r="X11">
+      <c r="X35">
         <v>67363000000</v>
       </c>
-      <c r="Y11">
+      <c r="Y35">
         <v>-1780000000</v>
       </c>
-      <c r="Z11">
+      <c r="Z35">
         <v>-22354000000</v>
       </c>
-      <c r="AA11">
+      <c r="AA35">
         <v>-9543000000</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
         <v>-89402000000</v>
       </c>
-      <c r="AD11">
+      <c r="AD35">
         <v>-14841000000</v>
       </c>
-      <c r="AE11">
+      <c r="AE35">
         <v>3037000000</v>
       </c>
-      <c r="AF11">
+      <c r="AF35">
         <v>-110749000000</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>-10952000000</v>
       </c>
-      <c r="AI11">
+      <c r="AI35">
         <v>24977000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ35">
         <v>35929000000</v>
       </c>
-      <c r="AK11">
+      <c r="AK35">
         <v>122151000000</v>
       </c>
-      <c r="AL11">
+      <c r="AL35">
         <v>-10708000000</v>
       </c>
-      <c r="AM11">
+      <c r="AM35">
         <v>111443000000</v>
       </c>
-      <c r="AN11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>104</v>
+      <c r="AN35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AN2" r:id="rId1"/>
-    <hyperlink ref="AO2" r:id="rId2"/>
-    <hyperlink ref="AN3" r:id="rId3"/>
-    <hyperlink ref="AO3" r:id="rId4"/>
-    <hyperlink ref="AN4" r:id="rId5"/>
-    <hyperlink ref="AO4" r:id="rId6"/>
-    <hyperlink ref="AN5" r:id="rId7"/>
-    <hyperlink ref="AO5" r:id="rId8"/>
-    <hyperlink ref="AN6" r:id="rId9"/>
-    <hyperlink ref="AO6" r:id="rId10"/>
-    <hyperlink ref="AN7" r:id="rId11"/>
-    <hyperlink ref="AO7" r:id="rId12"/>
-    <hyperlink ref="AN8" r:id="rId13"/>
-    <hyperlink ref="AO8" r:id="rId14"/>
-    <hyperlink ref="AN9" r:id="rId15"/>
-    <hyperlink ref="AO9" r:id="rId16"/>
-    <hyperlink ref="AN10" r:id="rId17"/>
-    <hyperlink ref="AO10" r:id="rId18"/>
-    <hyperlink ref="AN11" r:id="rId19"/>
-    <hyperlink ref="AO11" r:id="rId20"/>
+    <hyperlink ref="AN7" r:id="rId1"/>
+    <hyperlink ref="AO7" r:id="rId2"/>
+    <hyperlink ref="AN8" r:id="rId3"/>
+    <hyperlink ref="AO8" r:id="rId4"/>
+    <hyperlink ref="AN9" r:id="rId5"/>
+    <hyperlink ref="AO9" r:id="rId6"/>
+    <hyperlink ref="AN10" r:id="rId7"/>
+    <hyperlink ref="AO10" r:id="rId8"/>
+    <hyperlink ref="AN12" r:id="rId9"/>
+    <hyperlink ref="AO12" r:id="rId10"/>
+    <hyperlink ref="AN13" r:id="rId11"/>
+    <hyperlink ref="AO13" r:id="rId12"/>
+    <hyperlink ref="AN14" r:id="rId13"/>
+    <hyperlink ref="AO14" r:id="rId14"/>
+    <hyperlink ref="AN15" r:id="rId15"/>
+    <hyperlink ref="AO15" r:id="rId16"/>
+    <hyperlink ref="AN16" r:id="rId17"/>
+    <hyperlink ref="AO16" r:id="rId18"/>
+    <hyperlink ref="AN17" r:id="rId19"/>
+    <hyperlink ref="AO17" r:id="rId20"/>
+    <hyperlink ref="AN18" r:id="rId21"/>
+    <hyperlink ref="AO18" r:id="rId22"/>
+    <hyperlink ref="AN19" r:id="rId23"/>
+    <hyperlink ref="AO19" r:id="rId24"/>
+    <hyperlink ref="AN20" r:id="rId25"/>
+    <hyperlink ref="AO20" r:id="rId26"/>
+    <hyperlink ref="AN21" r:id="rId27"/>
+    <hyperlink ref="AO21" r:id="rId28"/>
+    <hyperlink ref="AN22" r:id="rId29"/>
+    <hyperlink ref="AO22" r:id="rId30"/>
+    <hyperlink ref="AN23" r:id="rId31"/>
+    <hyperlink ref="AO23" r:id="rId32"/>
+    <hyperlink ref="AN24" r:id="rId33"/>
+    <hyperlink ref="AO24" r:id="rId34"/>
+    <hyperlink ref="AN25" r:id="rId35"/>
+    <hyperlink ref="AO25" r:id="rId36"/>
+    <hyperlink ref="AN26" r:id="rId37"/>
+    <hyperlink ref="AO26" r:id="rId38"/>
+    <hyperlink ref="AN27" r:id="rId39"/>
+    <hyperlink ref="AO27" r:id="rId40"/>
+    <hyperlink ref="AN28" r:id="rId41"/>
+    <hyperlink ref="AO28" r:id="rId42"/>
+    <hyperlink ref="AN29" r:id="rId43"/>
+    <hyperlink ref="AO29" r:id="rId44"/>
+    <hyperlink ref="AN30" r:id="rId45"/>
+    <hyperlink ref="AO30" r:id="rId46"/>
+    <hyperlink ref="AN31" r:id="rId47"/>
+    <hyperlink ref="AO31" r:id="rId48"/>
+    <hyperlink ref="AN32" r:id="rId49"/>
+    <hyperlink ref="AO32" r:id="rId50"/>
+    <hyperlink ref="AN33" r:id="rId51"/>
+    <hyperlink ref="AO33" r:id="rId52"/>
+    <hyperlink ref="AN34" r:id="rId53"/>
+    <hyperlink ref="AO34" r:id="rId54"/>
+    <hyperlink ref="AN35" r:id="rId55"/>
+    <hyperlink ref="AO35" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
